--- a/biology/Microbiologie/Gélatine_nutritive/Gélatine_nutritive.xlsx
+++ b/biology/Microbiologie/Gélatine_nutritive/Gélatine_nutritive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9latine_nutritive</t>
+          <t>Gélatine_nutritive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gélatine nutritive est utilisée pour l'étude de l'hydrolyse de la gélatine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9latine_nutritive</t>
+          <t>Gélatine_nutritive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Extrait de viande : 3,0 g
 Peptone : 5,0 g
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9latine_nutritive</t>
+          <t>Gélatine_nutritive</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">128 g/L. Autoclavage classique. Refroidir en dessous de 20 °C pour solidifier.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9latine_nutritive</t>
+          <t>Gélatine_nutritive</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ajouter après culture une solution de chlorure de mercure. L'absence de précipité autour des colonies traduit l'absence de gélatine, donc la protéolyse par la bactérie (gélatinase +). Il est plus simple d'utiliser la technique à la pellicule photo ou la gélatine de Köhn.
 </t>
